--- a/backend/public/assets/reports/plantilla.xlsx
+++ b/backend/public/assets/reports/plantilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nuovo\src\assets\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nuovo\backend\public\assets\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5665E89D-E2A3-41A4-988D-8608548079FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1EAAE6-5103-4A4D-82A5-EE886EE326C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F1F6CED-C44A-4FCD-9131-8B675DB41C45}"/>
   </bookViews>
@@ -193,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -231,6 +231,9 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,8 +258,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -631,7 +634,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K1048576"/>
+      <selection activeCell="K11" activeCellId="1" sqref="G11:G13 K11:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,90 +642,90 @@
     <col min="1" max="3" width="11.42578125" style="4"/>
     <col min="4" max="4" width="11.42578125" style="2"/>
     <col min="5" max="8" width="11.42578125" style="13"/>
-    <col min="9" max="9" width="11.42578125" style="23"/>
+    <col min="9" max="9" width="11.42578125" style="15"/>
     <col min="10" max="10" width="11.42578125" style="13"/>
-    <col min="11" max="11" width="13.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="13"/>
     <col min="13" max="13" width="11.42578125" style="2"/>
     <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="19" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -749,26 +752,26 @@
       <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18">
         <v>45318</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="7"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -781,9 +784,9 @@
       <c r="V7" s="12"/>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -869,13 +872,13 @@
       <c r="F11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="11"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="9"/>
       <c r="M11" s="7"/>
       <c r="N11" s="12"/>
@@ -897,13 +900,13 @@
       <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="11"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="9"/>
       <c r="M12" s="7"/>
       <c r="N12" s="12"/>
@@ -925,13 +928,13 @@
       <c r="F13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="11"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="9"/>
       <c r="M13" s="7"/>
       <c r="N13" s="12"/>
@@ -982,28 +985,28 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1011,14 +1014,14 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="14">
